--- a/output.xlsx
+++ b/output.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Monday, Sunday</t>
+          <t>Monday, Thursday</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Tuesday, Thursday</t>
+          <t>Tuesday, Sunday</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Monday, Tuesday, Sunday</t>
+          <t>Monday, Tuesday, Wednesday</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Monday, Tuesday, Sunday</t>
+          <t>Monday, Thursday, Friday</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Monday, Wednesday, Friday</t>
+          <t>Monday, Thursday, Saturday</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Tuesday, Thursday, Friday</t>
+          <t>Tuesday, Wednesday, Thursday</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Wednesday, Thursday, Saturday</t>
+          <t>Tuesday, Friday, Sunday</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Wednesday, Thursday, Saturday</t>
+          <t>Wednesday, Saturday, Sunday</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Tuesday, Wednesday, Friday</t>
+          <t>Monday, Tuesday, Wednesday</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Monday, Wednesday, Thursday</t>
+          <t>Monday, Tuesday, Sunday</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Monday, Wednesday, Sunday</t>
+          <t>Monday, Wednesday, Thursday</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Tuesday, Friday, Saturday</t>
+          <t>Monday, Friday, Saturday</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>5</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>5</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="C64" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>5</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" s="4" t="n">
         <v>3</v>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110" s="4" t="n">
         <v>5</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" s="4" t="n">
         <v>5</v>
